--- a/Gantt_Chart_Excel.xlsx
+++ b/Gantt_Chart_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\OneDrive\School\Senior Design\seniordesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FC858D1-7196-462F-9CDC-585CF5961280}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF61C4A1-41BB-432A-A8EA-828B16DD8A37}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Development" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +522,9 @@
       <c r="H2" t="s">
         <v>27</v>
       </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -678,6 +681,9 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -859,6 +865,9 @@
       </c>
       <c r="H15" t="s">
         <v>27</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">

--- a/Gantt_Chart_Excel.xlsx
+++ b/Gantt_Chart_Excel.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\OneDrive\School\Senior Design\seniordesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF61C4A1-41BB-432A-A8EA-828B16DD8A37}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DD76E69-C809-4F23-B3CC-6AC28B2FC87E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Development" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Type</t>
   </si>
@@ -57,18 +65,12 @@
     <t>Research music teaching techniques</t>
   </si>
   <si>
-    <t>Research best filaments (LEDs?) to print</t>
-  </si>
-  <si>
     <t>Research micro controller</t>
   </si>
   <si>
     <t>Choose best technologies to use (IDE,language etc)</t>
   </si>
   <si>
-    <t>Research blue tooth (is it reasonable?)</t>
-  </si>
-  <si>
     <t>Make sounds for the application</t>
   </si>
   <si>
@@ -120,9 +122,6 @@
     <t>Jason Judis</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>Find children for testing</t>
   </si>
   <si>
@@ -130,6 +129,24 @@
   </si>
   <si>
     <t>Create data structure for file</t>
+  </si>
+  <si>
+    <t>Adam (hrs)</t>
+  </si>
+  <si>
+    <t>Eric (hrs)</t>
+  </si>
+  <si>
+    <t>Jason (hrs)</t>
+  </si>
+  <si>
+    <t>John (hrs)</t>
+  </si>
+  <si>
+    <t>Research best filaments (LEDs [Y]) to print</t>
+  </si>
+  <si>
+    <t>Research blue tooth (is it reasonable [N])</t>
   </si>
 </sst>
 </file>
@@ -148,12 +165,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,9 +203,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,24 +489,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,20 +532,29 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1">
@@ -520,21 +570,21 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>43490</v>
@@ -549,18 +599,24 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>43493</v>
@@ -575,18 +631,21 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>43492</v>
@@ -601,18 +660,21 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>43495</v>
@@ -627,18 +689,21 @@
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>43506</v>
@@ -653,18 +718,21 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>43511</v>
@@ -679,21 +747,24 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>43516</v>
@@ -708,18 +779,21 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>43524</v>
@@ -734,18 +808,21 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>43532</v>
@@ -760,18 +837,21 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>43539</v>
@@ -786,18 +866,21 @@
         <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>43552</v>
@@ -812,18 +895,24 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>22</v>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>43544</v>
@@ -838,18 +927,24 @@
         <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>43544</v>
@@ -864,21 +959,24 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="1">
         <v>43536</v>
@@ -893,18 +991,21 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="1">
         <v>43534</v>
@@ -919,18 +1020,21 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>43545</v>
@@ -945,18 +1049,24 @@
         <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>43541</v>
@@ -971,18 +1081,24 @@
         <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="1">
         <v>43552</v>
@@ -997,18 +1113,21 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>32</v>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="1">
         <v>43557</v>
@@ -1023,7 +1142,31 @@
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>SUM(I2:I21)</f>
+        <v>67</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J2:J21)</f>
+        <v>61</v>
+      </c>
+      <c r="K22">
+        <f>SUM(K2:K21)</f>
+        <v>54</v>
+      </c>
+      <c r="L22">
+        <f>SUM(L2:L21)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt_Chart_Excel.xlsx
+++ b/Gantt_Chart_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\OneDrive\School\Senior Design\seniordesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91a0d034c80d0299/School/Senior Design/seniordesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD4D306F-3209-4BBC-A9AA-E784E2AA5505}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2035743-752D-4F29-8D49-BAF10095B692}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1020" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Development" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,12 +181,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,12 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +482,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +670,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1">
@@ -695,6 +688,9 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
       <c r="I7">
         <v>2</v>
       </c>
@@ -758,7 +754,7 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
@@ -802,6 +798,9 @@
       <c r="G11" t="s">
         <v>25</v>
       </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
       <c r="K11">
         <v>10</v>
       </c>
@@ -865,7 +864,7 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
@@ -923,7 +922,7 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
@@ -975,7 +974,7 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1">
@@ -1004,7 +1003,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
@@ -1022,6 +1021,9 @@
       <c r="G19" t="s">
         <v>25</v>
       </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
       <c r="I19">
         <v>0</v>
       </c>
@@ -1033,7 +1035,7 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1">
@@ -1090,7 +1092,7 @@
       </c>
       <c r="H22">
         <f>SUM(H2:H21)</f>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <f>SUM(I2:I21)</f>

--- a/Gantt_Chart_Excel.xlsx
+++ b/Gantt_Chart_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91a0d034c80d0299/School/Senior Design/seniordesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2035743-752D-4F29-8D49-BAF10095B692}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42239073-B980-43AE-AAF5-7D291CE5393C}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1020" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Development" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Type</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Spring Hours</t>
+  </si>
+  <si>
+    <t>Fall Hours</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,29 +543,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43850</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+      <c r="B2" t="s">
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>56.5</v>
+      </c>
+      <c r="I2">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -564,28 +564,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>43855</v>
+        <v>43850</v>
       </c>
       <c r="D3" s="1">
-        <v>43868</v>
+        <v>43862</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -593,24 +590,27 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>43858</v>
+        <v>43855</v>
       </c>
       <c r="D4" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
     </row>
@@ -619,10 +619,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="D5" s="1">
         <v>43869</v>
@@ -631,13 +631,13 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,25 +645,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>43860</v>
+        <v>43857</v>
       </c>
       <c r="D6" s="1">
-        <v>43873</v>
+        <v>43869</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -671,28 +671,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
-        <v>43871</v>
+        <v>43860</v>
       </c>
       <c r="D7" s="1">
-        <v>43883</v>
+        <v>43873</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -700,25 +697,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>43876</v>
+        <v>43871</v>
       </c>
       <c r="D8" s="1">
-        <v>43889</v>
+        <v>43883</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -729,25 +726,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>43881</v>
+        <v>43876</v>
       </c>
       <c r="D9" s="1">
-        <v>43895</v>
+        <v>43889</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
       </c>
       <c r="I9">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -755,54 +755,51 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>43889</v>
+        <v>43881</v>
       </c>
       <c r="D10" s="1">
-        <v>43903</v>
+        <v>43895</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>43898</v>
+        <v>43889</v>
       </c>
       <c r="D11" s="1">
-        <v>43911</v>
+        <v>43903</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -810,25 +807,28 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>43905</v>
+        <v>43898</v>
       </c>
       <c r="D12" s="1">
-        <v>43918</v>
+        <v>43911</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
       <c r="K12">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -836,57 +836,57 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
+        <v>43905</v>
+      </c>
+      <c r="D13" s="1">
         <v>43918</v>
       </c>
-      <c r="D13" s="1">
-        <v>43931</v>
-      </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>43910</v>
+        <v>43918</v>
       </c>
       <c r="D14" s="1">
-        <v>43923</v>
+        <v>43931</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>43910</v>
@@ -906,16 +906,16 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -923,24 +923,27 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>43902</v>
+        <v>43910</v>
       </c>
       <c r="D16" s="1">
-        <v>43915</v>
+        <v>43923</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
     </row>
@@ -949,25 +952,28 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="D17" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
       </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
       <c r="J17">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -975,28 +981,28 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>43911</v>
+        <v>43900</v>
       </c>
       <c r="D18" s="1">
-        <v>43924</v>
+        <v>43912</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1004,31 +1010,28 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43911</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43924</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
-        <v>43907</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43919</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+      <c r="J19">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1036,75 +1039,157 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>43918</v>
+        <v>43907</v>
       </c>
       <c r="D20" s="1">
-        <v>43931</v>
+        <v>43919</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>43923</v>
+        <v>43918</v>
       </c>
       <c r="D21" s="1">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
       </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43923</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43936</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="H22">
-        <f>SUM(H2:H21)</f>
-        <v>84</v>
-      </c>
-      <c r="I22">
-        <f>SUM(I2:I21)</f>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <f>H2</f>
+        <v>56.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:K24" si="0">I2</f>
+        <v>52</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <f>SUM(H3:H22)</f>
+        <v>103</v>
+      </c>
+      <c r="I25">
+        <f>SUM(I3:I22)</f>
         <v>61</v>
       </c>
-      <c r="J22">
-        <f>SUM(J2:J21)</f>
+      <c r="J25">
+        <f>SUM(J3:J22)</f>
         <v>54</v>
       </c>
-      <c r="K22">
-        <f>SUM(K2:K21)</f>
+      <c r="K25">
+        <f>SUM(K3:K22)</f>
         <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <f>H24+H25</f>
+        <v>159.5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:K26" si="1">I24+I25</f>
+        <v>113</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt_Chart_Excel.xlsx
+++ b/Gantt_Chart_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91a0d034c80d0299/School/Senior Design/seniordesign/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tough\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{41A099D6-D2D6-433A-8E32-94E321B0C64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42239073-B980-43AE-AAF5-7D291CE5393C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F430BC3-2E4F-4808-80A1-F093B968E15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Development" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Type</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Jason Judis</t>
   </si>
   <si>
-    <t>Find children for testing</t>
-  </si>
-  <si>
     <t>Create application tutorial</t>
   </si>
   <si>
@@ -153,6 +150,12 @@
   </si>
   <si>
     <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Testing and Documentation</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,21 +533,21 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>56.5</v>
@@ -590,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>43855</v>
@@ -671,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>43860</v>
@@ -697,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>43871</v>
@@ -718,7 +721,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -799,7 +805,7 @@
         <v>24</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -828,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -857,14 +863,14 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1">
@@ -883,11 +889,14 @@
         <v>23</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -973,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1002,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="J18">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1060,10 +1069,13 @@
         <v>16</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1071,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>43918</v>
@@ -1091,16 +1103,22 @@
       <c r="H21">
         <v>4</v>
       </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
       <c r="J21">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>43923</v>
@@ -1115,23 +1133,29 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <f>H2</f>
@@ -1152,44 +1176,44 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <f>SUM(H3:H22)</f>
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="I25">
         <f>SUM(I3:I22)</f>
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="J25">
         <f>SUM(J3:J22)</f>
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="K25">
         <f>SUM(K3:K22)</f>
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <f>H24+H25</f>
-        <v>159.5</v>
+        <v>183.5</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:K26" si="1">I24+I25</f>
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
